--- a/Test Cases and Test Scenario/testscenario copy.xlsx
+++ b/Test Cases and Test Scenario/testscenario copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/Pateluttam09/Test Cases and Test Scenario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5504DC2-7FEC-E348-A8B3-162705370F0E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1662C0F2-31BE-8B45-816D-A9BCB588BA5D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14020" activeTab="9" xr2:uid="{873395F3-393A-CF44-B849-6D468286F06E}"/>
   </bookViews>
@@ -1570,11 +1570,11 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1896,7 +1896,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2089,7 +2089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452EB41F-BBCA-2C41-8A09-BDEC0C188560}">
   <dimension ref="A1:C108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -2111,11 +2111,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
     </row>
     <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
@@ -2124,7 +2124,7 @@
       <c r="B3" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>323</v>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
       <c r="B4" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>325</v>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       <c r="B5" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>327</v>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       <c r="B6" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>329</v>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
       <c r="B7" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>331</v>
       </c>
     </row>
@@ -2179,7 +2179,7 @@
       <c r="B8" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>333</v>
       </c>
     </row>
@@ -2190,7 +2190,7 @@
       <c r="B9" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>335</v>
       </c>
     </row>
@@ -2201,7 +2201,7 @@
       <c r="B10" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>337</v>
       </c>
     </row>
@@ -2212,7 +2212,7 @@
       <c r="B11" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>339</v>
       </c>
     </row>
@@ -2223,7 +2223,7 @@
       <c r="B12" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>341</v>
       </c>
     </row>
@@ -2234,7 +2234,7 @@
       <c r="B13" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>343</v>
       </c>
     </row>
@@ -2245,7 +2245,7 @@
       <c r="B14" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>345</v>
       </c>
     </row>
@@ -2256,7 +2256,7 @@
       <c r="B15" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>347</v>
       </c>
     </row>
@@ -2267,7 +2267,7 @@
       <c r="B16" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>349</v>
       </c>
     </row>
@@ -2301,11 +2301,11 @@
       <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
     </row>
     <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
@@ -2597,7 +2597,7 @@
       <c r="A49" s="8">
         <v>7</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="11" t="s">
         <v>393</v>
       </c>
       <c r="C49" s="8" t="s">
@@ -2608,7 +2608,7 @@
       <c r="A50" s="8">
         <v>8</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="11" t="s">
         <v>395</v>
       </c>
       <c r="C50" s="8" t="s">
@@ -2619,16 +2619,16 @@
       <c r="A51" s="8">
         <v>9</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="C51" s="12"/>
+      <c r="C51" s="11"/>
     </row>
     <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
         <v>10</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="11" t="s">
         <v>398</v>
       </c>
       <c r="C52" s="8"/>
@@ -2637,7 +2637,7 @@
       <c r="A53" s="8">
         <v>11</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="11" t="s">
         <v>399</v>
       </c>
       <c r="C53" s="8"/>
@@ -2646,7 +2646,7 @@
       <c r="A54" s="8">
         <v>12</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="11" t="s">
         <v>400</v>
       </c>
       <c r="C54" s="8"/>
@@ -2655,7 +2655,7 @@
       <c r="A55" s="8">
         <v>13</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="11" t="s">
         <v>401</v>
       </c>
       <c r="C55" s="8"/>
@@ -2664,17 +2664,17 @@
       <c r="A56" s="8">
         <v>14</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="11" t="s">
         <v>402</v>
       </c>
       <c r="C56" s="8"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="11"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
     </row>
     <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
@@ -3197,7 +3197,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DBCD6F7-F9D4-C244-A713-31B09A14EF76}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3687,7 +3689,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C15"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3872,7 +3874,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C19"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4599,7 +4601,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C19"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Test Cases and Test Scenario/testscenario copy.xlsx
+++ b/Test Cases and Test Scenario/testscenario copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Documents/Pateluttam09/Test Cases and Test Scenario/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1662C0F2-31BE-8B45-816D-A9BCB588BA5D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AE0046-1F2D-824D-8513-04B611C9D50C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14020" activeTab="9" xr2:uid="{873395F3-393A-CF44-B849-6D468286F06E}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="13960" activeTab="9" xr2:uid="{873395F3-393A-CF44-B849-6D468286F06E}"/>
   </bookViews>
   <sheets>
     <sheet name="door " sheetId="1" r:id="rId1"/>
@@ -2089,8 +2089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452EB41F-BBCA-2C41-8A09-BDEC0C188560}">
   <dimension ref="A1:C108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
